--- a/03.개발/가데이터/기업자 가데이터.xlsx
+++ b/03.개발/가데이터/기업자 가데이터.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="210">
   <si>
     <t>871117-4531133</t>
   </si>
@@ -822,6 +822,14 @@
   </si>
   <si>
     <t>HTML,CSS,JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,11 +928,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1224,7 +1232,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1271,10 +1279,10 @@
       <c r="H1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="5" t="s">
         <v>128</v>
       </c>
@@ -1304,8 +1312,12 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1345,8 +1357,12 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>44</v>
       </c>
@@ -1386,8 +1402,12 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1427,8 +1447,12 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1468,8 +1492,12 @@
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>47</v>
       </c>
@@ -1509,8 +1537,12 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>48</v>
       </c>
@@ -1550,8 +1582,12 @@
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>49</v>
       </c>
@@ -1591,8 +1627,12 @@
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>50</v>
       </c>
@@ -1632,8 +1672,12 @@
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>51</v>
       </c>
@@ -1673,8 +1717,12 @@
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>52</v>
       </c>
@@ -1714,8 +1762,12 @@
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="G12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2200,7 +2252,7 @@
     <row r="24" spans="1:4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
@@ -2792,7 +2844,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="3"/>
       <c r="J26" s="1"/>
     </row>
